--- a/Reactor/New/height/data/fig7.xlsx
+++ b/Reactor/New/height/data/fig7.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="9480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -350,7 +351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
@@ -361,10 +362,10 @@
         <v>0.48387096774193544</v>
       </c>
       <c r="B1">
-        <v>2.8529020448098921</v>
+        <v>1.8542284795840238</v>
       </c>
       <c r="C1">
-        <v>1.0078967258475398</v>
+        <v>1.0315517524913658</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -372,10 +373,10 @@
         <v>0.532258064516129</v>
       </c>
       <c r="B2">
-        <v>3.1190747332069213</v>
+        <v>1.7244709328634942</v>
       </c>
       <c r="C2">
-        <v>1.0028741615481014</v>
+        <v>1.0086152002119251</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -383,10 +384,10 @@
         <v>0.58064516129032251</v>
       </c>
       <c r="B3">
-        <v>3.9904370712061996</v>
+        <v>1.7915303947193624</v>
       </c>
       <c r="C3">
-        <v>1.0659026078522607</v>
+        <v>1.0225778024304211</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -394,10 +395,10 @@
         <v>0.62903225806451613</v>
       </c>
       <c r="B4">
-        <v>4.4005459134211726</v>
+        <v>1.7504221886652489</v>
       </c>
       <c r="C4">
-        <v>1.0616022040999722</v>
+        <v>1.0083566142346283</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -405,10 +406,10 @@
         <v>0.67741935483870963</v>
       </c>
       <c r="B5">
-        <v>4.9037621692108182</v>
+        <v>1.8808310036426434</v>
       </c>
       <c r="C5">
-        <v>1.060741095368869</v>
+        <v>1.0217733776423341</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -416,10 +417,10 @@
         <v>0.72580645161290325</v>
       </c>
       <c r="B6">
-        <v>5.3856381757076015</v>
+        <v>1.8639688176640694</v>
       </c>
       <c r="C6">
-        <v>1.0627316421111508</v>
+        <v>1.0091141530534287</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -427,10 +428,10 @@
         <v>0.77419354838709664</v>
       </c>
       <c r="B7">
-        <v>5.9780270829930107</v>
+        <v>1.9662122502686852</v>
       </c>
       <c r="C7">
-        <v>1.0672437261025922</v>
+        <v>1.0241553943218866</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -438,10 +439,10 @@
         <v>0.82258064516129026</v>
       </c>
       <c r="B8">
-        <v>6.5394462559701179</v>
+        <v>1.9244703302450592</v>
       </c>
       <c r="C8">
-        <v>1.0732932526726675</v>
+        <v>1.0091327325038593</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -449,10 +450,10 @@
         <v>0.87096774193548376</v>
       </c>
       <c r="B9">
-        <v>7.1440291227378632</v>
+        <v>2.0371757315498473</v>
       </c>
       <c r="C9">
-        <v>1.0804658699888796</v>
+        <v>1.022710241036366</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -460,10 +461,10 @@
         <v>0.91935483870967738</v>
       </c>
       <c r="B10">
-        <v>7.7803479780798597</v>
+        <v>2.0077335505811758</v>
       </c>
       <c r="C10">
-        <v>1.0900244462192092</v>
+        <v>1.0113397840007865</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -471,10 +472,10 @@
         <v>0.96774193548387089</v>
       </c>
       <c r="B11">
-        <v>8.4524632641215476</v>
+        <v>2.1191967200116881</v>
       </c>
       <c r="C11">
-        <v>1.099642275553369</v>
+        <v>1.0237248101918677</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -482,10 +483,10 @@
         <v>1.0161290322580645</v>
       </c>
       <c r="B12">
-        <v>9.14869278889417</v>
+        <v>2.2509592896556287</v>
       </c>
       <c r="C12">
-        <v>1.1112178893612195</v>
+        <v>1.0365256662913844</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -493,10 +494,10 @@
         <v>1.064516129032258</v>
       </c>
       <c r="B13">
-        <v>9.8754802537844704</v>
+        <v>2.1864215940940515</v>
       </c>
       <c r="C13">
-        <v>1.123204634202722</v>
+        <v>1.0248148201690077</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -504,10 +505,10 @@
         <v>1.1129032258064515</v>
       </c>
       <c r="B14">
-        <v>10.655569521884168</v>
+        <v>2.3432923553437823</v>
       </c>
       <c r="C14">
-        <v>1.136177130567249</v>
+        <v>1.0373910325614901</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -515,10 +516,10 @@
         <v>1.161290322580645</v>
       </c>
       <c r="B15">
-        <v>11.497855872927373</v>
+        <v>2.3126061451524738</v>
       </c>
       <c r="C15">
-        <v>1.1499091972626378</v>
+        <v>1.0242900453844832</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -526,10 +527,10 @@
         <v>1.2096774193548387</v>
       </c>
       <c r="B16">
-        <v>11.616545274943775</v>
+        <v>2.5493262115277648</v>
       </c>
       <c r="C16">
-        <v>1.1243674153612317</v>
+        <v>1.0129700961541694</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -537,10 +538,10 @@
         <v>1.2580645161290323</v>
       </c>
       <c r="B17">
-        <v>12.533513847824922</v>
+        <v>2.5028067217112215</v>
       </c>
       <c r="C17">
-        <v>1.1394472160784286</v>
+        <v>1.0246740204974352</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -548,10 +549,10 @@
         <v>1.3064516129032255</v>
       </c>
       <c r="B18">
-        <v>13.476130427504545</v>
+        <v>2.8318796335105607</v>
       </c>
       <c r="C18">
-        <v>1.1548690173394802</v>
+        <v>1.0113941917005111</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -559,10 +560,10 @@
         <v>1.3548387096774193</v>
       </c>
       <c r="B19">
-        <v>13.747739873739476</v>
+        <v>2.7849375889946573</v>
       </c>
       <c r="C19">
-        <v>1.1344956625079978</v>
+        <v>1.0240965112313862</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -570,10 +571,10 @@
         <v>1.4032258064516128</v>
       </c>
       <c r="B20">
-        <v>14.710386920957305</v>
+        <v>3.1365620885115786</v>
       </c>
       <c r="C20">
-        <v>1.1492857396448968</v>
+        <v>1.0081457481633886</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -581,10 +582,10 @@
         <v>1.4516129032258065</v>
       </c>
       <c r="B21">
-        <v>15.189194916618632</v>
+        <v>3.1277458010642807</v>
       </c>
       <c r="C21">
-        <v>1.131095986355998</v>
+        <v>1.019037527386975</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -592,10 +593,10 @@
         <v>1.4999999999999998</v>
       </c>
       <c r="B22">
-        <v>15.675474053859505</v>
+        <v>3.435766790757127</v>
       </c>
       <c r="C22">
-        <v>1.1139767013453035</v>
+        <v>1.0054504519477723</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -603,10 +604,10 @@
         <v>1.5483870967741933</v>
       </c>
       <c r="B23">
-        <v>16.888949389321787</v>
+        <v>3.5122118029392717</v>
       </c>
       <c r="C23">
-        <v>1.1305325494360996</v>
+        <v>1.014325801758325</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -614,10 +615,10 @@
         <v>1.596774193548387</v>
       </c>
       <c r="B24">
-        <v>17.499660160715219</v>
+        <v>3.5937116852450779</v>
       </c>
       <c r="C24">
-        <v>1.114600266115455</v>
+        <v>1.0245189610278722</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -625,10 +626,10 @@
         <v>1.6451612903225805</v>
       </c>
       <c r="B25">
-        <v>18.848497822083335</v>
+        <v>4.0355450617335062</v>
       </c>
       <c r="C25">
-        <v>1.1313134536787957</v>
+        <v>1.0079070962046432</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -636,10 +637,10 @@
         <v>1.6935483870967742</v>
       </c>
       <c r="B26">
-        <v>19.621762231725583</v>
+        <v>4.0975824255249549</v>
       </c>
       <c r="C26">
-        <v>1.1163315172997184</v>
+        <v>1.0160971056092447</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -647,10 +648,10 @@
         <v>1.7419354838709675</v>
       </c>
       <c r="B27">
-        <v>20.4803104435412</v>
+        <v>4.2201935719949057</v>
       </c>
       <c r="C27">
-        <v>1.1021602340706835</v>
+        <v>1.0252781355349663</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -658,10 +659,10 @@
         <v>1.790322580645161</v>
       </c>
       <c r="B28">
-        <v>22.047373495766898</v>
+        <v>4.6364353127351627</v>
       </c>
       <c r="C28">
-        <v>1.118778591009409</v>
+        <v>1.0076136790996175</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -669,10 +670,10 @@
         <v>1.8387096774193548</v>
       </c>
       <c r="B29">
-        <v>23.099447286280036</v>
+        <v>4.8305718049080353</v>
       </c>
       <c r="C29">
-        <v>1.105394535075563</v>
+        <v>1.0150822820512702</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -680,10 +681,10 @@
         <v>1.8870967741935483</v>
       </c>
       <c r="B30">
-        <v>24.85301668937203</v>
+        <v>5.2548806865653992</v>
       </c>
       <c r="C30">
-        <v>1.1222678130881181</v>
+        <v>0.99559677492138643</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -691,10 +692,553 @@
         <v>1.9354838709677418</v>
       </c>
       <c r="B31">
-        <v>26.098457109035873</v>
+        <v>5.4011184225379436</v>
       </c>
       <c r="C31">
-        <v>1.109456617297256</v>
+        <v>1.0039876376720123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>0.48387096774193544</v>
+      </c>
+      <c r="B1">
+        <v>0.45371382981186487</v>
+      </c>
+      <c r="C1">
+        <v>0.95567748533590635</v>
+      </c>
+      <c r="D1">
+        <v>3.5938436574463628</v>
+      </c>
+      <c r="E1">
+        <v>2.5808584529663898</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.532258064516129</v>
+      </c>
+      <c r="B2">
+        <v>0.30333215303022282</v>
+      </c>
+      <c r="C2">
+        <v>0.76279663856924396</v>
+      </c>
+      <c r="D2">
+        <v>3.4418009130866767</v>
+      </c>
+      <c r="E2">
+        <v>2.5901098003868173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.58064516129032251</v>
+      </c>
+      <c r="B3">
+        <v>0.570753940464506</v>
+      </c>
+      <c r="C3">
+        <v>0.96869467201927162</v>
+      </c>
+      <c r="D3">
+        <v>3.1382128435307437</v>
+      </c>
+      <c r="E3">
+        <v>2.647543896829168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0.62903225806451613</v>
+      </c>
+      <c r="B4">
+        <v>0.39136377908335118</v>
+      </c>
+      <c r="C4">
+        <v>0.8590075623601493</v>
+      </c>
+      <c r="D4">
+        <v>2.9883750788682004</v>
+      </c>
+      <c r="E4">
+        <v>2.9447358296590602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="B5">
+        <v>0.70069934665536915</v>
+      </c>
+      <c r="C5">
+        <v>1.0377007670738405</v>
+      </c>
+      <c r="D5">
+        <v>2.9875881531873163</v>
+      </c>
+      <c r="E5">
+        <v>2.9584387897295152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0.72580645161290325</v>
+      </c>
+      <c r="B6">
+        <v>0.48383050744414052</v>
+      </c>
+      <c r="C6">
+        <v>0.94899604034075846</v>
+      </c>
+      <c r="D6">
+        <v>2.8812468290318427</v>
+      </c>
+      <c r="E6">
+        <v>3.3226987242200705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0.77419354838709664</v>
+      </c>
+      <c r="B7">
+        <v>0.80707730064870087</v>
+      </c>
+      <c r="C7">
+        <v>1.0829145603252859</v>
+      </c>
+      <c r="D7">
+        <v>2.7892038713947684</v>
+      </c>
+      <c r="E7">
+        <v>3.3337393835222424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0.82258064516129026</v>
+      </c>
+      <c r="B8">
+        <v>0.53890002707105067</v>
+      </c>
+      <c r="C8">
+        <v>1.0388083358529061</v>
+      </c>
+      <c r="D8">
+        <v>2.6563015951482312</v>
+      </c>
+      <c r="E8">
+        <v>3.6249725763911114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0.87096774193548376</v>
+      </c>
+      <c r="B9">
+        <v>0.86810605667728413</v>
+      </c>
+      <c r="C9">
+        <v>1.1564751914483147</v>
+      </c>
+      <c r="D9">
+        <v>2.5440160898798836</v>
+      </c>
+      <c r="E9">
+        <v>3.7002284832562675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0.91935483870967738</v>
+      </c>
+      <c r="B10">
+        <v>0.5490175596705914</v>
+      </c>
+      <c r="C10">
+        <v>1.1165708431228067</v>
+      </c>
+      <c r="D10">
+        <v>2.4558051391018574</v>
+      </c>
+      <c r="E10">
+        <v>4.0422346336944797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0.96774193548387089</v>
+      </c>
+      <c r="B11">
+        <v>0.87871749362856488</v>
+      </c>
+      <c r="C11">
+        <v>1.2039005254478217</v>
+      </c>
+      <c r="D11">
+        <v>2.359357042937944</v>
+      </c>
+      <c r="E11">
+        <v>4.1246534718319374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1.0161290322580645</v>
+      </c>
+      <c r="B12">
+        <v>1.2207512913165448</v>
+      </c>
+      <c r="C12">
+        <v>1.3386119284387952</v>
+      </c>
+      <c r="D12">
+        <v>2.2623516004516206</v>
+      </c>
+      <c r="E12">
+        <v>4.2262641097184455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1.064516129032258</v>
+      </c>
+      <c r="B13">
+        <v>0.83458992168470469</v>
+      </c>
+      <c r="C13">
+        <v>1.28549856003306</v>
+      </c>
+      <c r="D13">
+        <v>2.1524042752252721</v>
+      </c>
+      <c r="E13">
+        <v>4.5221223434127529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1.1129032258064515</v>
+      </c>
+      <c r="B14">
+        <v>1.1686889474628213</v>
+      </c>
+      <c r="C14">
+        <v>1.3797348957737694</v>
+      </c>
+      <c r="D14">
+        <v>2.0587237154299394</v>
+      </c>
+      <c r="E14">
+        <v>4.7558896263131576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>1.161290322580645</v>
+      </c>
+      <c r="B15">
+        <v>0.73215900904428977</v>
+      </c>
+      <c r="C15">
+        <v>1.386184947341353</v>
+      </c>
+      <c r="D15">
+        <v>2.0028948400618081</v>
+      </c>
+      <c r="E15">
+        <v>5.1304874417401916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>1.2096774193548387</v>
+      </c>
+      <c r="B16">
+        <v>0.75345524370271699</v>
+      </c>
+      <c r="C16">
+        <v>1.7890709584150943</v>
+      </c>
+      <c r="D16">
+        <v>2.0956236282073455</v>
+      </c>
+      <c r="E16">
+        <v>5.5768755797498804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1.2580645161290323</v>
+      </c>
+      <c r="B17">
+        <v>0.74916337699257796</v>
+      </c>
+      <c r="C17">
+        <v>1.5643559385212604</v>
+      </c>
+      <c r="D17">
+        <v>1.8853484075842355</v>
+      </c>
+      <c r="E17">
+        <v>5.7933247240152665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>1.3064516129032255</v>
+      </c>
+      <c r="B18">
+        <v>0.95586327343054645</v>
+      </c>
+      <c r="C18">
+        <v>2.1325240201723266</v>
+      </c>
+      <c r="D18">
+        <v>2.0047699252142577</v>
+      </c>
+      <c r="E18">
+        <v>6.1620663629122134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1.3548387096774193</v>
+      </c>
+      <c r="B19">
+        <v>0.91594055413504871</v>
+      </c>
+      <c r="C19">
+        <v>1.8930290984267246</v>
+      </c>
+      <c r="D19">
+        <v>1.8440591792011722</v>
+      </c>
+      <c r="E19">
+        <v>6.3879158699833987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1.4032258064516128</v>
+      </c>
+      <c r="B20">
+        <v>1.1987750033976854</v>
+      </c>
+      <c r="C20">
+        <v>2.4822541163112288</v>
+      </c>
+      <c r="D20">
+        <v>1.991270859824289</v>
+      </c>
+      <c r="E20">
+        <v>6.7087372601609045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1.4516129032258065</v>
+      </c>
+      <c r="B21">
+        <v>1.1366333187450173</v>
+      </c>
+      <c r="C21">
+        <v>2.2753096167330509</v>
+      </c>
+      <c r="D21">
+        <v>2.0064750978527388</v>
+      </c>
+      <c r="E21">
+        <v>6.9366920252683819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="B22">
+        <v>1.4812176455116628</v>
+      </c>
+      <c r="C22">
+        <v>2.8651967912992373</v>
+      </c>
+      <c r="D22">
+        <v>1.8093047539890346</v>
+      </c>
+      <c r="E22">
+        <v>7.3028917846143955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1.5483870967741933</v>
+      </c>
+      <c r="B23">
+        <v>1.4058287869203194</v>
+      </c>
+      <c r="C23">
+        <v>2.6544651464271989</v>
+      </c>
+      <c r="D23">
+        <v>2.1980462080512053</v>
+      </c>
+      <c r="E23">
+        <v>7.5662361602440322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1.596774193548387</v>
+      </c>
+      <c r="B24">
+        <v>1.3423430836340406</v>
+      </c>
+      <c r="C24">
+        <v>2.4439682630417847</v>
+      </c>
+      <c r="D24">
+        <v>2.5861213699148569</v>
+      </c>
+      <c r="E24">
+        <v>7.8702355182550603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>1.6451612903225805</v>
+      </c>
+      <c r="B25">
+        <v>1.723945334560574</v>
+      </c>
+      <c r="C25">
+        <v>3.0655840774861418</v>
+      </c>
+      <c r="D25">
+        <v>3.002029526828204</v>
+      </c>
+      <c r="E25">
+        <v>8.1936542599933642</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>1.6935483870967742</v>
+      </c>
+      <c r="B26">
+        <v>1.6475503907052214</v>
+      </c>
+      <c r="C26">
+        <v>2.8802460608854865</v>
+      </c>
+      <c r="D26">
+        <v>3.267708378461736</v>
+      </c>
+      <c r="E26">
+        <v>8.5059052771635137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1.7419354838709675</v>
+      </c>
+      <c r="B27">
+        <v>1.5811982416920216</v>
+      </c>
+      <c r="C27">
+        <v>2.681228793075356</v>
+      </c>
+      <c r="D27">
+        <v>3.8477353257190834</v>
+      </c>
+      <c r="E27">
+        <v>8.819155933675896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>1.790322580645161</v>
+      </c>
+      <c r="B28">
+        <v>2.0069120841139783</v>
+      </c>
+      <c r="C28">
+        <v>3.3091073875751373</v>
+      </c>
+      <c r="D28">
+        <v>4.0077559593004537</v>
+      </c>
+      <c r="E28">
+        <v>9.1898487237915454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1.8387096774193548</v>
+      </c>
+      <c r="B29">
+        <v>1.9301618001850538</v>
+      </c>
+      <c r="C29">
+        <v>3.1905107376144746</v>
+      </c>
+      <c r="D29">
+        <v>4.615726397014055</v>
+      </c>
+      <c r="E29">
+        <v>9.764164006105414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>1.8870967741935483</v>
+      </c>
+      <c r="B30">
+        <v>2.4170028600695472</v>
+      </c>
+      <c r="C30">
+        <v>3.8426147859387489</v>
+      </c>
+      <c r="D30">
+        <v>4.7625344062807979</v>
+      </c>
+      <c r="E30">
+        <v>10.081760419540904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>1.9354838709677418</v>
+      </c>
+      <c r="B31">
+        <v>2.3400552879590655</v>
+      </c>
+      <c r="C31">
+        <v>3.6589466962785382</v>
+      </c>
+      <c r="D31">
+        <v>5.3844911876259962</v>
+      </c>
+      <c r="E31">
+        <v>10.475836194452496</v>
       </c>
     </row>
   </sheetData>

--- a/Reactor/New/height/data/fig7.xlsx
+++ b/Reactor/New/height/data/fig7.xlsx
@@ -365,7 +365,7 @@
         <v>1.8542284795840238</v>
       </c>
       <c r="C1">
-        <v>1.0315517524913658</v>
+        <v>0.99203165357531053</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -376,7 +376,7 @@
         <v>1.7244709328634942</v>
       </c>
       <c r="C2">
-        <v>1.0086152002119251</v>
+        <v>0.9916228153718597</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -387,7 +387,7 @@
         <v>1.7915303947193624</v>
       </c>
       <c r="C3">
-        <v>1.0225778024304211</v>
+        <v>0.99195168189773031</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -398,7 +398,7 @@
         <v>1.7504221886652489</v>
       </c>
       <c r="C4">
-        <v>1.0083566142346283</v>
+        <v>0.9916329407698028</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -409,7 +409,7 @@
         <v>1.8808310036426434</v>
       </c>
       <c r="C5">
-        <v>1.0217733776423341</v>
+        <v>0.99124017734939607</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -420,7 +420,7 @@
         <v>1.8639688176640694</v>
       </c>
       <c r="C6">
-        <v>1.0091141530534287</v>
+        <v>0.9907456780656988</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -431,7 +431,7 @@
         <v>1.9662122502686852</v>
       </c>
       <c r="C7">
-        <v>1.0241553943218866</v>
+        <v>0.99079036355256311</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -442,7 +442,7 @@
         <v>1.9244703302450592</v>
       </c>
       <c r="C8">
-        <v>1.0091327325038593</v>
+        <v>0.9904813989419271</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -453,7 +453,7 @@
         <v>2.0371757315498473</v>
       </c>
       <c r="C9">
-        <v>1.022710241036366</v>
+        <v>0.99020624772386434</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -464,7 +464,7 @@
         <v>2.0077335505811758</v>
       </c>
       <c r="C10">
-        <v>1.0113397840007865</v>
+        <v>0.99000178930342553</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -475,7 +475,7 @@
         <v>2.1191967200116881</v>
       </c>
       <c r="C11">
-        <v>1.0237248101918677</v>
+        <v>0.98963579457055284</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -486,7 +486,7 @@
         <v>2.2509592896556287</v>
       </c>
       <c r="C12">
-        <v>1.0365256662913844</v>
+        <v>0.98922515247229814</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -497,7 +497,7 @@
         <v>2.1864215940940515</v>
       </c>
       <c r="C13">
-        <v>1.0248148201690077</v>
+        <v>0.98913643920850691</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -508,7 +508,7 @@
         <v>2.3432923553437823</v>
       </c>
       <c r="C14">
-        <v>1.0373910325614901</v>
+        <v>0.98843529113473838</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -519,7 +519,7 @@
         <v>2.3126061451524738</v>
       </c>
       <c r="C15">
-        <v>1.0242900453844832</v>
+        <v>0.98815542914694532</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -530,7 +530,7 @@
         <v>2.5493262115277648</v>
       </c>
       <c r="C16">
-        <v>1.0129700961541694</v>
+        <v>0.98780287794932131</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -541,7 +541,7 @@
         <v>2.5028067217112215</v>
       </c>
       <c r="C17">
-        <v>1.0246740204974352</v>
+        <v>0.98718748439021775</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -552,7 +552,7 @@
         <v>2.8318796335105607</v>
       </c>
       <c r="C18">
-        <v>1.0113941917005111</v>
+        <v>0.98664910514369852</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -563,7 +563,7 @@
         <v>2.7849375889946573</v>
       </c>
       <c r="C19">
-        <v>1.0240965112313862</v>
+        <v>0.98647389961583021</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -574,7 +574,7 @@
         <v>3.1365620885115786</v>
       </c>
       <c r="C20">
-        <v>1.0081457481633886</v>
+        <v>0.98587707995236562</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -585,7 +585,7 @@
         <v>3.1277458010642807</v>
       </c>
       <c r="C21">
-        <v>1.019037527386975</v>
+        <v>0.9855633052244378</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -596,7 +596,7 @@
         <v>3.435766790757127</v>
       </c>
       <c r="C22">
-        <v>1.0054504519477723</v>
+        <v>0.98543118858598067</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -607,7 +607,7 @@
         <v>3.5122118029392717</v>
       </c>
       <c r="C23">
-        <v>1.014325801758325</v>
+        <v>0.98506111743671332</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -618,7 +618,7 @@
         <v>3.5937116852450779</v>
       </c>
       <c r="C24">
-        <v>1.0245189610278722</v>
+        <v>0.98459850407676763</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -629,7 +629,7 @@
         <v>4.0355450617335062</v>
       </c>
       <c r="C25">
-        <v>1.0079070962046432</v>
+        <v>0.98434522860899831</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -640,7 +640,7 @@
         <v>4.0975824255249549</v>
       </c>
       <c r="C26">
-        <v>1.0160971056092447</v>
+        <v>0.98380630635247246</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -651,7 +651,7 @@
         <v>4.2201935719949057</v>
       </c>
       <c r="C27">
-        <v>1.0252781355349663</v>
+        <v>0.9834154257721438</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -662,7 +662,7 @@
         <v>4.6364353127351627</v>
       </c>
       <c r="C28">
-        <v>1.0076136790996175</v>
+        <v>0.98331047960307572</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -673,7 +673,7 @@
         <v>4.8305718049080353</v>
       </c>
       <c r="C29">
-        <v>1.0150822820512702</v>
+        <v>0.98248770816637898</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -684,7 +684,7 @@
         <v>5.2548806865653992</v>
       </c>
       <c r="C30">
-        <v>0.99559677492138643</v>
+        <v>0.98214031225901832</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -695,7 +695,7 @@
         <v>5.4011184225379436</v>
       </c>
       <c r="C31">
-        <v>1.0039876376720123</v>
+        <v>0.98184936723686689</v>
       </c>
     </row>
   </sheetData>
